--- a/data/test_demo_data.xlsx
+++ b/data/test_demo_data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TestDemo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://324b8fae-9234-4ca3-ad64-2735603c07d1.mock.pstmn.io/api/demo/posttest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://324b8fae-9234-4ca3-ad64-2735603c07d1.mock.pstmn.io/api/demo/gettest?id=23&amp;type=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,7 +74,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{“code”：“1000”,"msg":"调用成功","data":{"name":"黑彩","age":"20","sex":"male"}}</t>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "code":1000,
+  "msg": "调用成功", "data": {
+  "name": "黑彩",
+  "age": "20",
+  "sex": "male"
+ }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,19 +105,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{“code”：“1000”,"msg":"调用成功","data":{"name":"大白","age":"18","sex":"female"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
+    <t>{
+ "code ": 1000,
+ "msg ": "调用成功 ",
+ "data ": {
+  "name": "大白",
+  "age": "18",
+  "sex": "female"
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://0476fbb6-c437-444d-83c2-e6b6b8bb4391.mock.pstmn.io/api/demo/posttest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://0476fbb6-c437-444d-83c2-e6b6b8bb4391.mock.pstmn.io/api/demo/gettest?id=23&amp;type=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,7 +494,7 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="63.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -492,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -501,47 +520,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_demo_data.xlsx
+++ b/data/test_demo_data.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
    "code":1000,
   "msg": "调用成功", "data": {
@@ -98,10 +94,6 @@
   "sex": "male"
  }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"12345","type":"1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,6 +114,14 @@
   </si>
   <si>
     <t>https://0476fbb6-c437-444d-83c2-e6b6b8bb4391.mock.pstmn.io/api/demo/gettest?id=23&amp;type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"12345","type":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"12345","type":"1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +486,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -537,10 +537,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -560,10 +560,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
